--- a/code/excels/server/server_item_config.xlsx
+++ b/code/excels/server/server_item_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24930" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="24930" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -178,10 +178,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -192,24 +192,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,9 +207,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,6 +216,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,62 +250,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,16 +282,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,19 +345,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,73 +459,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,13 +513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,67 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,6 +536,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -559,54 +607,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,133 +654,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1132,12 +1132,12 @@
   <sheetPr/>
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1:J2"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1360,7 +1360,7 @@
   <sheetPr/>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3:K4"/>
     </sheetView>
   </sheetViews>

--- a/code/excels/server/server_item_config.xlsx
+++ b/code/excels/server/server_item_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
   <si>
     <t>道具id</t>
   </si>
@@ -92,16 +92,22 @@
     <t>UseArgs</t>
   </si>
   <si>
-    <t>原石</t>
-  </si>
-  <si>
-    <t>星石</t>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>木材</t>
+  </si>
+  <si>
+    <t>局内货币最大100</t>
+  </si>
+  <si>
+    <t>局内货币最大</t>
   </si>
   <si>
     <t>货币最大为999</t>
   </si>
   <si>
-    <t>天梯积分</t>
+    <t>货币最大</t>
   </si>
   <si>
     <t>大型宝瓶</t>
@@ -178,10 +184,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -192,10 +198,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,20 +297,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -229,108 +329,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,187 +351,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,15 +542,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -559,15 +556,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,6 +594,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -628,6 +625,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -642,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,133 +660,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1130,22 +1136,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I19" sqref="I19"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="6.58333333333333" style="8" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.0833333333333" customWidth="1"/>
-    <col min="4" max="4" width="8.83333333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.15" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="5" max="5" width="11.45" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
     <col min="10" max="10" width="12.9166666666667" customWidth="1"/>
@@ -1239,23 +1245,23 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8">
+    <row r="4" s="5" customFormat="1" spans="1:4">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="B5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>26</v>
@@ -1264,88 +1270,102 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="9">
+    <row r="6" spans="1:4">
+      <c r="A6" s="8">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="9">
         <v>10001</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="D7" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="9">
-        <v>10002</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="K7" t="s">
         <v>31</v>
       </c>
-      <c r="K7" t="s">
-        <v>29</v>
+      <c r="L7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="9">
+        <v>10002</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="9">
         <v>10003</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="9">
-        <v>10004</v>
-      </c>
       <c r="D9" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="K9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="9">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="9">
-        <v>10006</v>
+        <v>10005</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9">
-        <v>10007</v>
+        <v>10006</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9">
-        <v>10008</v>
+        <v>10007</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="9">
+        <v>10008</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="9">
         <v>10009</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>38</v>
+      <c r="D15" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1373,10 +1393,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:13">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1406,7 +1426,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>11</v>
@@ -1414,10 +1434,10 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>12</v>
@@ -1447,7 +1467,7 @@
         <v>21</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>23</v>
@@ -1455,54 +1475,54 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>12</v>

--- a/code/excels/server/server_item_config.xlsx
+++ b/code/excels/server/server_item_config.xlsx
@@ -198,76 +198,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,38 +306,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -351,19 +351,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,13 +477,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,31 +495,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,109 +525,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,21 +560,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -594,7 +579,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,7 +588,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,10 +648,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,133 +660,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1136,14 +1136,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1366,6 +1366,11 @@
       </c>
       <c r="D15" s="9" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="8">
+        <v>20001</v>
       </c>
     </row>
   </sheetData>
